--- a/biology/Zoologie/Gonocephalus_doriae/Gonocephalus_doriae.xlsx
+++ b/biology/Zoologie/Gonocephalus_doriae/Gonocephalus_doriae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gonocephalus doriae est une espèce de sauriens de la famille des Agamidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gonocephalus doriae est une espèce de sauriens de la famille des Agamidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Bornéo[1]. Elle se rencontre au Sarawak en Malaisie orientale et au Kalimantan en Indonésie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Bornéo. Elle se rencontre au Sarawak en Malaisie orientale et au Kalimantan en Indonésie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Giacomo Doria[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Giacomo Doria.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Peters, 1871 : Über neue Reptilien aus Ostafrika und Sarawak (Borneo), vorzüglich aus der Sammlung des Hrn. Marquis J. Doria zu Genua. Monatsberichte der Königlichen Akademie der Wissenschaften zu Berlin, vol. 1871, p. 566-581 (texte intégral).</t>
         </is>
